--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to throw away &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to throw away (～を)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -380,7 +380,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to begin &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to begin (～を)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -392,7 +392,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to drive &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to drive (～を)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -404,7 +404,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to do laundry &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to do laundry (～を)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -416,7 +416,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to clean &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to clean (～を)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>skillful; good at &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>skillful; good at (～が)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>clumsy; poor at &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>clumsy; poor at (～が)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1232,7 +1232,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>to wash &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to wash (～を)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1256,7 +1256,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>to need &lt;small&gt;(～が)&lt;/small&gt;</t>
+          <t>to need (～が)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1304,7 +1304,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>to cut &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to cut (～を)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>to make &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to make (～を)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>to take (a thing) &lt;small&gt;(～を)&lt;/small&gt;</t>
+          <t>to take (a thing) (～を)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1804 +436,1804 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to throw away (～を)</t>
+          <t>sunny weather</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>捨てる|すてる</t>
+          <t>晴れ|はれ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to begin (～を)</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>始める|はじめる</t>
+          <t>雨|あめ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to drive (～を)</t>
+          <t>cloudy weather</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>運転する|うんてんする</t>
+          <t>曇り|くもり</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to do laundry (～を)</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>洗濯する|せんたくする</t>
+          <t>雪|ゆき</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to clean (～を)</t>
+          <t>weather forecast</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>掃除する|そうじする</t>
+          <t>天気予報|てんきよほう</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to cook</t>
+          <t>temperature (weather)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>料理する|りょうりする</t>
+          <t>気温|きおん</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>果物|くだもの</t>
+          <t>夏|なつ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>strawberry</t>
+          <t>winter</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>いちご</t>
+          <t>冬|ふゆ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>watermelon</t>
+          <t>this morning</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>すいか</t>
+          <t>今朝|けさ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mandarin orange</t>
+          <t>the day after tomorrow</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>みかん</t>
+          <t>あさって</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>every week</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>りんご</t>
+          <t>毎週|まいしゅう</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>peach</t>
+          <t>this month</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>もも</t>
+          <t>今月|こんげつ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>grapes</t>
+          <t>next month</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ぶどう</t>
+          <t>来月|らいげつ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vegetable</t>
+          <t>office worker</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>野菜|やさい</t>
+          <t>会社員|かいしゃいん</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>carrot</t>
+          <t>job; work; occupation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>にんじん</t>
+          <t>仕事|しごと</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>onion</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>たまねぎ</t>
+          <t>カメラ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>potato</t>
+          <t>karaoke</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>じゃがいも</t>
+          <t>カラオケ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>eggplant</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>なす</t>
+          <t>所|ところ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cucumber</t>
+          <t>tomato</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>きゅうり</t>
+          <t>トマト</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cabbage</t>
+          <t>chopsticks</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>キャベツ</t>
+          <t>はし</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>party</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>肉|にく</t>
+          <t>パーティー</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>beef</t>
+          <t>barbecue</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>牛肉|ぎゅうにく</t>
+          <t>バーベキュー</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pork</t>
+          <t>homestay; living with a local family</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>豚肉|ぶたにく</t>
+          <t>ホームステイ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>bath</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>鶏肉|とりにく</t>
+          <t>お風呂|おふろ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>office worker</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>会社員|かいしゃいん</t>
+          <t>スペイン</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>job; work; occupation</t>
+          <t>something</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>仕事|しごと</t>
+          <t>何か|なにか</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>skillful; good at (～が)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>カメラ</t>
+          <t>上手|じょうず(な)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>karaoke</t>
+          <t>clumsy; poor at (～が)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>カラオケ</t>
+          <t>下手|へた(な)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>famous</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>所|ところ</t>
+          <t>有名|ゆうめい(な)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tomato</t>
+          <t>to wash (～を)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>トマト</t>
+          <t>洗う|あらう</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>chopsticks</t>
+          <t>to say</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>はし</t>
+          <t>言う|いう</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>party</t>
+          <t>to need (～が)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>パーティー</t>
+          <t>いる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>barbecue</t>
+          <t>to be late</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>バーベキュー</t>
+          <t>遅くなる|おそくなる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>homestay; living with a local family</t>
+          <t>to take a bath</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ホームステイ</t>
+          <t>お風呂に入る|おふろにはいる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bath</t>
+          <t>to think</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>お風呂|おふろ</t>
+          <t>思う|おもう</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>to cut (～を)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>スペイン</t>
+          <t>切る|きる</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>to make (～を)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>何か|なにか</t>
+          <t>作る|つくる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>rain falls</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ご飯|ごはん</t>
+          <t>雨が降る|あめがふる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>side dish</t>
+          <t>snow falls</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>おかず</t>
+          <t>雪が降る|ゆきがふる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>miso soup</t>
+          <t>to take (a thing) (～を)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>みそ汁|みそしる</t>
+          <t>持っていく|もっていく</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>set meal</t>
+          <t>to throw away (～を)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>定食|ていしょく</t>
+          <t>捨てる|すてる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>curry with rice</t>
+          <t>to begin (～を)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>カレーライス</t>
+          <t>始める|はじめる</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>rice balls</t>
+          <t>to drive (～を)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>おにぎり</t>
+          <t>運転する|うんてんする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ramen noodles</t>
+          <t>to do laundry (～を)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ラーメン</t>
+          <t>洗濯する|せんたくする</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>udon noodles</t>
+          <t>to clean (～を)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>うどん</t>
+          <t>掃除する|そうじする</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>to cook</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>パスタ</t>
+          <t>料理する|りょうりする</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>dumplings</t>
+          <t>uh-huh; yes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ぎょうざ</t>
+          <t>うん</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>beef rice bowl</t>
+          <t>uh-uh; no</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>牛丼|ぎゅうどん</t>
+          <t>ううん</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hamburger steak</t>
+          <t>always</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ハンバーグ</t>
+          <t>いつも</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>raw seafood</t>
+          <t>(do something) late</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>さしみ</t>
+          <t>遅く|おそく</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>savory pancake</t>
+          <t>Cheers! (a toast)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>お好み焼き|おこのみやき</t>
+          <t>乾杯|かんぱい</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>toast</t>
+          <t>all (of the people) together</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>トースト</t>
+          <t>みんなで</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>That's too bad.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>スープ</t>
+          <t>残念(ですね)|ざんねん(ですね)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>yogurt</t>
+          <t>not...yet (w/negative)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ヨーグルト</t>
+          <t>まだ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>broiled fish</t>
+          <t>about...; concerning...</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>焼き魚|やきざかな</t>
+          <t>～について</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>...degrees (temperature)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>たまご</t>
+          <t>～度|～ど</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sunny weather</t>
+          <t>how</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>晴れ|はれ</t>
+          <t>どう</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>雨|あめ</t>
+          <t>ご飯|ごはん</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>cloudy weather</t>
+          <t>side dish</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>曇り|くもり</t>
+          <t>おかず</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>miso soup</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>雪|ゆき</t>
+          <t>みそ汁|みそしる</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>weather forecast</t>
+          <t>set meal</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>天気予報|てんきよほう</t>
+          <t>定食|ていしょく</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>temperature (weather)</t>
+          <t>curry with rice</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>気温|きおん</t>
+          <t>カレーライス</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>rice balls</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>夏|なつ</t>
+          <t>おにぎり</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>winter</t>
+          <t>ramen noodles</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>冬|ふゆ</t>
+          <t>ラーメン</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>this morning</t>
+          <t>udon noodles</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>今朝|けさ</t>
+          <t>うどん</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>the day after tomorrow</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>あさって</t>
+          <t>パスタ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>every week</t>
+          <t>dumplings</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>毎週|まいしゅう</t>
+          <t>ぎょうざ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>this month</t>
+          <t>beef rice bowl</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>今月|こんげつ</t>
+          <t>牛丼|ぎゅうどん</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>next month</t>
+          <t>hamburger steak</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>来月|らいげつ</t>
+          <t>ハンバーグ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>skillful; good at (～が)</t>
+          <t>raw seafood</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>上手|じょうず(な)</t>
+          <t>さしみ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>clumsy; poor at (～が)</t>
+          <t>savory pancake</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>下手|へた(な)</t>
+          <t>お好み焼き|おこのみやき</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>toast</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>有名|ゆうめい(な)</t>
+          <t>トースト</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>to wash (～を)</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>洗う|あらう</t>
+          <t>スープ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>to say</t>
+          <t>yogurt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>言う|いう</t>
+          <t>ヨーグルト</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>to need (～が)</t>
+          <t>broiled fish</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>いる</t>
+          <t>焼き魚|やきざかな</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>to be late</t>
+          <t>egg</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>遅くなる|おそくなる</t>
+          <t>たまご</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>to take a bath</t>
+          <t>Do you have avocado?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>お風呂に入る|おふろにはいる</t>
+          <t>アボカドはありますか。</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>to think</t>
+          <t>Is there alcohol in this?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>思う|おもう</t>
+          <t>この中にお酒が入っていますか。|このなかにおさけがはいっていますか。</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>to cut (～を)</t>
+          <t>Is this halal?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>切る|きる</t>
+          <t>これはハラルフードですか。</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>to make (～を)</t>
+          <t>I have an allergy to peanuts.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>作る|つくる</t>
+          <t>ピーナッツアレルギーがあります。</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>rain falls</t>
+          <t>Can I have a bag?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>雨が降る|あめがふる</t>
+          <t>袋をお願いします。|ふくろをおねがいします。</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>snow falls</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>雪が降る|ゆきがふる</t>
+          <t>果物|くだもの</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>to take (a thing) (～を)</t>
+          <t>strawberry</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>持っていく|もっていく</t>
+          <t>いちご</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Do you have avocado?</t>
+          <t>watermelon</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>アボカドはありますか。</t>
+          <t>すいか</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Is there alcohol in this?</t>
+          <t>mandarin orange</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>この中にお酒が入っていますか。|このなかにおさけがはいっていますか。</t>
+          <t>みかん</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Is this halal?</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>これはハラルフードですか。</t>
+          <t>りんご</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>I have an allergy to peanuts.</t>
+          <t>peach</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ピーナッツアレルギーがあります。</t>
+          <t>もも</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Can I have a bag?</t>
+          <t>grapes</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>袋をお願いします。|ふくろをおねがいします。</t>
+          <t>ぶどう</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>uh-huh; yes</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>うん</t>
+          <t>野菜|やさい</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>uh-uh; no</t>
+          <t>carrot</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ううん</t>
+          <t>にんじん</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>always</t>
+          <t>onion</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>いつも</t>
+          <t>たまねぎ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>(do something) late</t>
+          <t>potato</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>遅く|おそく</t>
+          <t>じゃがいも</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cheers! (a toast)</t>
+          <t>eggplant</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>乾杯|かんぱい</t>
+          <t>なす</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>all (of the people) together</t>
+          <t>cucumber</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>みんなで</t>
+          <t>きゅうり</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>That's too bad.</t>
+          <t>cabbage</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>残念(ですね)|ざんねん(ですね)</t>
+          <t>キャベツ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>not...yet (w/negative)</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>まだ</t>
+          <t>肉|にく</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>about...; concerning...</t>
+          <t>beef</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>～について</t>
+          <t>牛肉|ぎゅうにく</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>...degrees (temperature)</t>
+          <t>pork</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>～度|～ど</t>
+          <t>豚肉|ぶたにく</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>どう</t>
+          <t>鶏肉|とりにく</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>to make</t>
+          <t>office worker</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>作る|つくる</t>
+          <t>会社員|かいしゃいん</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>store clerk</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>作文|さくぶん</t>
+          <t>店員|てんいん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>artistic piece</t>
+          <t>member</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>作品|さくひん</t>
+          <t>会員|かいいん</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>station attendant</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>作者|さくしゃ</t>
+          <t>駅員|えきいん</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>new</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>仕事|しごと</t>
+          <t>新しい|あたらしい</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>revenge</t>
+          <t>newspaper</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>仕返し|しかえし</t>
+          <t>新聞|しんぶん</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>to serve; to work under</t>
+          <t>Bullet Train</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>仕える|つかえる</t>
+          <t>新幹線|しんかんせん</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>thing</t>
+          <t>fresh</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>事|こと</t>
+          <t>新鮮な|しんせんな</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>to listen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>火事|かじ</t>
+          <t>聞く|きく</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>meal</t>
+          <t>can be heard</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>食事|しょくじ</t>
+          <t>聞こえる|きこえる</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>reply</t>
+          <t>to make</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>返事|へんじ</t>
+          <t>作る|つくる</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>to be absent; to rest</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>休む|やすむ</t>
+          <t>作文|さくぶん</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>holiday; absence</t>
+          <t>artistic piece</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>休み|やすみ</t>
+          <t>作品|さくひん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>holiday</t>
+          <t>author</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>休日|きゅうじつ</t>
+          <t>作者|さくしゃ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>to say</t>
+          <t>job</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>言う|いう</t>
+          <t>仕事|しごと</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>linguistics</t>
+          <t>revenge</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>言語学|げんごがく</t>
+          <t>仕返し|しかえし</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>dialect</t>
+          <t>to serve; to work under</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>方言|ほうげん</t>
+          <t>仕える|つかえる</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>word; language</t>
+          <t>thing</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>言葉|ことば</t>
+          <t>事|こと</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>to read</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>読む|よむ</t>
+          <t>火事|かじ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>reading books</t>
+          <t>meal</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>読書|どくしょ</t>
+          <t>食事|しょくじ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>reading matter</t>
+          <t>reply</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>読み物|よみもの</t>
+          <t>返事|へんじ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>to think</t>
+          <t>train</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>思う|おもう</t>
+          <t>電車|でんしゃ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mysterious</t>
+          <t>electricity; light</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>不思議な|ふしぎな</t>
+          <t>電気|でんき</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>to recall; to remember</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>思い出す|おもいだす</t>
+          <t>電話|でんわ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>next</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>次|つぎ</t>
+          <t>電池|でんち</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>second daughter</t>
+          <t>microwave oven</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>次女|じじょ</t>
+          <t>電子レンジ|でんしレンジ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>table of contents</t>
+          <t>car</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>目次|もくじ</t>
+          <t>車|くるま</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>next time</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>次回|じかい</t>
+          <t>自転車|じてんしゃ</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>wheelchair</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>何|なに</t>
+          <t>車いす|くるまいす</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>what time</t>
+          <t>parking lot</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>何時|なんじ</t>
+          <t>駐車場|ちゅうしゃじょう</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>how many people</t>
+          <t>to be absent; to rest</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>何人|なんにん</t>
+          <t>休む|やすむ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>holiday; absence</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>何か|なにか</t>
+          <t>休み|やすみ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>office worker</t>
+          <t>holiday</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>会社員|かいしゃいん</t>
+          <t>休日|きゅうじつ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>store clerk</t>
+          <t>to say</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>店員|てんいん</t>
+          <t>言う|いう</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>member</t>
+          <t>linguistics</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>会員|かいいん</t>
+          <t>言語学|げんごがく</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>station attendant</t>
+          <t>dialect</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>駅員|えきいん</t>
+          <t>方言|ほうげん</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>word; language</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>新しい|あたらしい</t>
+          <t>言葉|ことば</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>newspaper</t>
+          <t>to read</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>新聞|しんぶん</t>
+          <t>読む|よむ</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Bullet Train</t>
+          <t>reading books</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>新幹線|しんかんせん</t>
+          <t>読書|どくしょ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>fresh</t>
+          <t>reading matter</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>新鮮な|しんせんな</t>
+          <t>読み物|よみもの</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>to listen</t>
+          <t>to think</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>聞く|きく</t>
+          <t>思う|おもう</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>can be heard</t>
+          <t>mysterious</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>聞こえる|きこえる</t>
+          <t>不思議な|ふしぎな</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>to recall; to remember</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>電車|でんしゃ</t>
+          <t>思い出す|おもいだす</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>electricity; light</t>
+          <t>next</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>電気|でんき</t>
+          <t>次|つぎ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>second daughter</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>電話|でんわ</t>
+          <t>次女|じじょ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>table of contents</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>電池|でんち</t>
+          <t>目次|もくじ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>microwave oven</t>
+          <t>next time</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>電子レンジ|でんしレンジ</t>
+          <t>次回|じかい</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>what</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>車|くるま</t>
+          <t>何|なに</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>what time</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>自転車|じてんしゃ</t>
+          <t>何時|なんじ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>wheelchair</t>
+          <t>how many people</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>車いす|くるまいす</t>
+          <t>何人|なんにん</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>parking lot</t>
+          <t>something</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>駐車場|ちゅうしゃじょう</t>
+          <t>何か|なにか</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2234,6 +2234,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-8.xlsx
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>fire (disaster)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>reading books</t>
+          <t>reading (books)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>reading matter</t>
+          <t>reading matter; reading material</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
